--- a/Stillbirth.xlsx
+++ b/Stillbirth.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -605,7 +605,7 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>534</v>
+        <v>405</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -613,43 +613,43 @@
         </is>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
       <c r="E5" s="2">
-        <v>40571</v>
+        <v>45015</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>28</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Kosofe</t>
+          <t>Ifako-Ijaiye</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>LVASA/13/1150/32</t>
+          <t>LVASA/10/144/7</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>tab14</t>
+          <t>tab54</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2024-03-06</t>
+          <t>2024-03-05</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>ARANJU OLUKUNLE
-FUNMI AGBAJE</t>
+          <t>OLUSOJI-AFOLABI OLUWATOSIN
+ODUMERU SAMIAT</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -673,17 +673,17 @@
         </is>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6" s="2">
-        <v>39309</v>
+        <v>40571</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>38</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -725,1349 +725,1829 @@
     </row>
     <row r="7">
       <c r="A7">
+        <v>534</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Stillbirth</t>
+        </is>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2">
+        <v>39309</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Kosofe</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>LVASA/13/1150/32</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>tab14</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>ARANJU OLUKUNLE
+FUNMI AGBAJE</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
         <v>602</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Stillbirth</t>
-        </is>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Stillbirth</t>
+        </is>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
         <v>45310</v>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Lagos Mainland</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>LVASA/15/704/27</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>tab6</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>2024-03-06</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>ODIAGBE JOHN
 BANKE OLOWU</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8">
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
         <v>1155</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Stillbirth</t>
-        </is>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Stillbirth</t>
+        </is>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>2</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E9" s="2">
         <v>44629</v>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Alimosho</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>LVASA/3/6898/10</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>tab3</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>2024-03-07</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>MICHAEL GLORIA
 JOSIAH OGUNJOBI</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9">
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>1165</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Stillbirth</t>
+        </is>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
+        <v>45332</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Alimosho</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>LVASA/3/6898/7</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>tab3</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>MICHAEL GLORIA
+JOSIAH OGUNJOBI</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>1165</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Stillbirth</t>
+        </is>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>44937</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Alimosho</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>LVASA/3/6898/7</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>tab3</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>MICHAEL GLORIA
+JOSIAH OGUNJOBI</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>1165</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Stillbirth</t>
+        </is>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>44420</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Alimosho</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>LVASA/3/6898/7</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>tab3</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>MICHAEL GLORIA
+JOSIAH OGUNJOBI</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
         <v>1394</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Stillbirth</t>
-        </is>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Stillbirth</t>
+        </is>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2">
         <v>42262</v>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>38</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>Kosofe</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>LVASA/13/1232/4</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>tab14</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>2024-03-07</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>ARANJU OLUKUNLE
 FUNMI AGBAJE</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10">
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
         <v>1781</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Stillbirth</t>
-        </is>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Stillbirth</t>
+        </is>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
         <v>45326</v>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>08</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>Epe</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>tab16</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>2024-03-08</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>OJO MOSHOOD ADEMUYIWA
 OMOBOLAJI LASISI</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11">
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
         <v>1894</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Stillbirth</t>
-        </is>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Stillbirth</t>
+        </is>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
         <v>3</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E15" s="2">
         <v>45021</v>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>Alimosho</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>LVASA/3/6978/14</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>tab3</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>2024-03-08</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>MICHAEL GLORIA
 JOSIAH OGUNJOBI</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12">
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
         <v>1946</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Stillbirth</t>
-        </is>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Stillbirth</t>
+        </is>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
         <v>2</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E16" s="2">
         <v>45550</v>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>Somolu</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>LVASA/19/296/19</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>tab5</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>2024-03-08</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>AGBALAYA SEKINAT
 OLUDURO CHRISTIANA OLUWATOBI</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13">
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
         <v>1953</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Stillbirth</t>
-        </is>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" s="2">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Stillbirth</t>
+        </is>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2">
         <v>45154</v>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>Mushin</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>LVASA/16/72/6</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>tab12</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>2024-03-08</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>ADEMOLA AKANDE
 RACHAEL OGHENEWAIRE</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14">
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
         <v>2275</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Stillbirth</t>
-        </is>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Stillbirth</t>
+        </is>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
         <v>5</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E18" s="2">
         <v>45309</v>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>Ibeju-Lekki</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>LVASA/9/854/35</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>tab2</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>2024-03-09</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>MAKANJUOLA MOSHOOD
 ODEYALE OLUWASEGUN DANIEL</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15">
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
         <v>2299</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Stillbirth</t>
-        </is>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Stillbirth</t>
+        </is>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
         <v>2</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E19" s="2">
         <v>45061</v>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>Epe</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>LVASA/7/82/23</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>tab16</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>2024-03-09</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>OJO MOSHOOD ADEMUYIWA
 OMOBOLAJI LASISI</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16">
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
         <v>2321</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Stillbirth</t>
-        </is>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16" s="2">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Stillbirth</t>
+        </is>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2">
         <v>45326</v>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>Epe</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>LVASA/7/82/30</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>tab16</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>2024-03-09</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>OJO MOSHOOD ADEMUYIWA
 OMOBOLAJI LASISI</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17">
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
         <v>2744</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Stillbirth</t>
-        </is>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Stillbirth</t>
+        </is>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
         <v>3</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E21" s="2">
         <v>45082</v>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>Epe</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>LVASA/7/94/27</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
         <is>
           <t>tab16</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>2024-03-10</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>OJO MOSHOOD ADEMUYIWA
 OMOBOLAJI LASISI</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18">
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
         <v>2744</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Stillbirth</t>
-        </is>
-      </c>
-      <c r="C18">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Stillbirth</t>
+        </is>
+      </c>
+      <c r="C22">
         <v>2</v>
       </c>
-      <c r="D18">
+      <c r="D22">
         <v>4</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E22" s="2">
         <v>45543</v>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>Epe</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>LVASA/7/94/27</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
         <is>
           <t>tab16</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>2024-03-10</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>OJO MOSHOOD ADEMUYIWA
 OMOBOLAJI LASISI</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19">
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
         <v>3231</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Stillbirth</t>
-        </is>
-      </c>
-      <c r="C19">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Stillbirth</t>
+        </is>
+      </c>
+      <c r="C23">
         <v>2</v>
       </c>
-      <c r="D19">
+      <c r="D23">
         <v>7</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E23" s="2">
         <v>45008</v>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>41</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>Eti-Osa</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>LVASA/8/1732/34</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>tab21</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>05/03/2024</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>MOUDU ROSEWA ROSEMARY
 EFFIONG HAPPINESS</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20">
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
         <v>3359</v>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Stillbirth</t>
-        </is>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Stillbirth</t>
+        </is>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
         <v>3</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E24" s="2">
         <v>45306</v>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>Eti-Osa</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>LVASA/8/1900/7</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>tab21</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>05/03/2024</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>MOUDU ROSEWA ROSEMARY
 EFFIONG HAPPINESS</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21">
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
         <v>3382</v>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Stillbirth</t>
-        </is>
-      </c>
-      <c r="C21">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Stillbirth</t>
+        </is>
+      </c>
+      <c r="C25">
         <v>2</v>
       </c>
-      <c r="D21">
+      <c r="D25">
         <v>23</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E25" s="2">
         <v>44910</v>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>32</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>Eti-Osa</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>LVASA/8/1732/48</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>tab21</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>05/03/2024</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>MOUDU ROSEWA ROSEMARY
 EFFIONG HAPPINESS</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>3547</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Stillbirth</t>
+        </is>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2">
+        <v>45029</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Oshodi-Isolo</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>LVASA/18/958/16</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>tab9</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>2024-03-10</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>UGOCHUKWU OBINNA
+YEKINI MUSIBAU</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
         <v>3601</v>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Stillbirth</t>
-        </is>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Stillbirth</t>
+        </is>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
         <v>2</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E27" s="2">
         <v>45182</v>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>Amuwo odofin</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>LVASA/4/1688/1</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>tab15</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>2024-03-11</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>NA
 NA</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23">
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
         <v>3792</v>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Stillbirth</t>
-        </is>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23" s="2">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Stillbirth</t>
+        </is>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" s="2">
         <v>44321</v>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>38</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>Kosofe</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>LVASA/13/1892/6</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>tab14</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>2024-03-11</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>ARANJU OLUKUNLE
 FUNMI AGBAJE</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24">
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
         <v>4115</v>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Stillbirth</t>
-        </is>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24" s="2">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Stillbirth</t>
+        </is>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" s="2">
         <v>45327</v>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>Epe</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>LVASA/7/404/24</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>tab16</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>2024-03-12</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>OJO MOSHOOD ADEMUYIWA
 OMOBOLAJI LASISI</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25">
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
         <v>4640</v>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Stillbirth</t>
-        </is>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Stillbirth</t>
+        </is>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
         <v>5</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E30" s="2">
         <v>45245</v>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>Ibeju-Lekki</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>tab2</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>2024-03-13</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>MAKANJUOLA MOSHOOD
 ODEYALE OLUWASEGUN DANIEL</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26">
-        <v>4772</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Stillbirth</t>
-        </is>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26" s="2">
-        <v>45354</v>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>4768</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Stillbirth</t>
+        </is>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31" s="2">
+        <v>45307</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
         <is>
           <t>Eti-Osa</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>LVASA/8/1850/37</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>LVASA/8/1850/33</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
         <is>
           <t>tab21</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>2024-03-13</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>MOUDU ROSEWA ROSEMARY
 EFFIONG HAPPINESS</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27">
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>4772</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Stillbirth</t>
+        </is>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2">
+        <v>45354</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Eti-Osa</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>LVASA/8/1850/37</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>tab21</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>MOUDU ROSEWA ROSEMARY
+EFFIONG HAPPINESS</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
         <v>5344</v>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Stillbirth</t>
-        </is>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Stillbirth</t>
+        </is>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
         <v>4</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E33" s="2">
         <v>44985</v>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>Ibeju-Lekki</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>LVASA/9/864/3</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>tab2</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>2024-03-14</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>MAKANJUOLA MOSHOOD
 ODEYALE OLUWASEGUN DANIEL</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28">
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
         <v>5448</v>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Stillbirth</t>
-        </is>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28" s="2">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Stillbirth</t>
+        </is>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" s="2">
         <v>45243</v>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>Epe</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>tab16</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>2024-03-14</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>OJO MOSHOOD ADEMUYIWA
 OMOBOLAJI LASISI</t>
         </is>
       </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29">
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
         <v>5635</v>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Stillbirth</t>
-        </is>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Stillbirth</t>
+        </is>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
         <v>4</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E35" s="2">
         <v>45312</v>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>Oshodi-Isolo</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>LVASA/18/1398/26</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>tab9</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>2024-03-14</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>UGOCHUKWU OBINNA
 YEKINI MUSIBAU</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>6209</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Stillbirth</t>
+        </is>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" s="2">
+        <v>45211</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Ifako-Ijaiye</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>tab54</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>2024-03-16</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>OLUSOJI-AFOLABI OLUWATOSIN
+ODUMERU SAMIAT</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>6318</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Stillbirth</t>
+        </is>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37" s="2">
+        <v>45192</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Ibeju-Lekki</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>tab2</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>2024-03-16</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>MAKANJUOLA MOSHOOD
+ODEYALE OLUWASEGUN DANIEL</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>

--- a/Stillbirth.xlsx
+++ b/Stillbirth.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M37"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -402,30 +402,50 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>Settlement Locality</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>enumeration_code</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>address</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>description_to_aid_house</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>mapping_id</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>data_entry_personnel</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>date_of_mapping</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Enumerator</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Selection</t>
         </is>
@@ -453,31 +473,44 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
+          <t>AKANBI &amp; IBEFUN STR, IJANIKIN</t>
+        </is>
+      </c>
+      <c r="I2">
+        <v>924</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>NO 4,  DEPENDABLE GOD CASTLE, AKANBI STREET, OFF IROKOSUN, AIYETORO IJANKIN, OJO, LAGOS STATE.</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
           <t>LVASA/17/924/3</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>tab20</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2024-03-05</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>NA
 NA</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -513,31 +546,44 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
+          <t>AKANBI &amp; IBEFUN STR, IJANIKIN</t>
+        </is>
+      </c>
+      <c r="I3">
+        <v>924</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>NO 4,  DEPENDABLE GOD CASTLE, AKANBI STREET, OFF IROKOSUN, AIYETORO IJANKIN, OJO, LAGOS STATE.</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
           <t>LVASA/17/924/3</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>tab20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2024-03-05</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>NA
 NA</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -573,31 +619,49 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
+          <t>FOLA AZEEZ, ALAKUKO</t>
+        </is>
+      </c>
+      <c r="I4">
+        <v>144</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>12 Fola Azeez Road</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Opposite Best way Hotels</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
           <t>LVASA/10/144/34</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>tab54</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2024-03-05</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>OLUSOJI-AFOLABI OLUWATOSIN
 ODUMERU SAMIAT</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -633,31 +697,49 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
+          <t>FOLA AZEEZ, ALAKUKO</t>
+        </is>
+      </c>
+      <c r="I5">
+        <v>144</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>18 Fagbenro Abayomi Street</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>House opposite Newbliss Garden Hotel</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
           <t>LVASA/10/144/7</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>tab54</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2024-03-05</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>OLUSOJI-AFOLABI OLUWATOSIN
 ODUMERU SAMIAT</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -693,31 +775,44 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
+          <t>AROWOJOGBE /DEMURIN, ALAPERE</t>
+        </is>
+      </c>
+      <c r="I6">
+        <v>1150</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>12, Arowojobe Street Ketu-Alapere</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
           <t>LVASA/13/1150/32</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>tab14</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2024-03-06</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>ARANJU OLUKUNLE
 FUNMI AGBAJE</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -753,31 +848,44 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
+          <t>AROWOJOGBE /DEMURIN, ALAPERE</t>
+        </is>
+      </c>
+      <c r="I7">
+        <v>1150</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>12, Arowojobe Street Ketu-Alapere</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
           <t>LVASA/13/1150/32</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>tab14</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2024-03-06</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>ARANJU OLUKUNLE
 FUNMI AGBAJE</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -813,31 +921,44 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
+          <t>32/42 MAKOKO ROAD, MAKOKO</t>
+        </is>
+      </c>
+      <c r="I8">
+        <v>704</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>52 Makoko road Lagos</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
           <t>LVASA/15/704/27</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>tab6</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>2024-03-06</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>ODIAGBE JOHN
 BANKE OLOWU</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -871,33 +992,46 @@
           <t>Alimosho</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9">
+        <v>6898</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>12 OKESALU STREET</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>1 STOREY BUILDING</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
         <is>
           <t>LVASA/3/6898/10</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>tab3</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>2024-03-07</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>MICHAEL GLORIA
 JOSIAH OGUNJOBI</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -931,33 +1065,46 @@
           <t>Alimosho</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10">
+        <v>6898</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>8 OKESALU STREET</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>2nd BUILDING</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
         <is>
           <t>LVASA/3/6898/7</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>tab3</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>2024-03-07</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>MICHAEL GLORIA
 JOSIAH OGUNJOBI</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -991,33 +1138,46 @@
           <t>Alimosho</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11">
+        <v>6898</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>8 OKESALU STREET</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>2nd BUILDING</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
         <is>
           <t>LVASA/3/6898/7</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>tab3</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>2024-03-07</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>MICHAEL GLORIA
 JOSIAH OGUNJOBI</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -1051,33 +1211,46 @@
           <t>Alimosho</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12">
+        <v>6898</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>8 OKESALU STREET</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>2nd BUILDING</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
         <is>
           <t>LVASA/3/6898/7</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>tab3</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>2024-03-07</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>MICHAEL GLORIA
 JOSIAH OGUNJOBI</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -1113,31 +1286,44 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
+          <t>OLADUNDE /DEMURIN, MILE 12</t>
+        </is>
+      </c>
+      <c r="I13">
+        <v>1232</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>33, Oladipo Street Ketu-Alapere</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
           <t>LVASA/13/1232/4</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>tab14</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>2024-03-07</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>ARANJU OLUKUNLE
 FUNMI AGBAJE</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -1171,28 +1357,38 @@
           <t>Epe</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>AYEGBAMI OLORUNSOGOTEKORO ILARA, MOJODA</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>11, Idiroko, Ibonwon Eredo along Ilara Road.</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
         <is>
           <t>tab16</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>2024-03-08</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>OJO MOSHOOD ADEMUYIWA
 OMOBOLAJI LASISI</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -1226,33 +1422,46 @@
           <t>Alimosho</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15">
+        <v>6978</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>8 OBASANJO ITAYOLA STREET</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>8 OBASANJO ITAYOLA STREET, A BUNGALOW</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
         <is>
           <t>LVASA/3/6978/14</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>tab3</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>2024-03-08</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>MICHAEL GLORIA
 JOSIAH OGUNJOBI</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -1288,31 +1497,44 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
+          <t>23,OLOJA STREET, BARIGA</t>
+        </is>
+      </c>
+      <c r="I16">
+        <v>296</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Number 9, Adesina street</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
           <t>LVASA/19/296/19</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>tab5</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="N16" t="inlineStr">
         <is>
           <t>2024-03-08</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>AGBALAYA SEKINAT
 OLUDURO CHRISTIANA OLUWATOBI</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -1348,31 +1570,44 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
+          <t>OLANIBI / BELLO, PAPA-AJAO</t>
+        </is>
+      </c>
+      <c r="I17">
+        <v>72</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>43/ 46 Olanibi street off Ladipo road Mushin Lagos</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
           <t>LVASA/16/72/6</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>tab12</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="N17" t="inlineStr">
         <is>
           <t>2024-03-08</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>ADEMOLA AKANDE
 RACHAEL OGHENEWAIRE</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -1408,31 +1643,44 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
+          <t>OLORUNSOGO/ELEKO/BALOGUN, ELEKO</t>
+        </is>
+      </c>
+      <c r="I18">
+        <v>854</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>26b, Olorunsogo street</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
           <t>LVASA/9/854/35</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>tab2</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="N18" t="inlineStr">
         <is>
           <t>2024-03-09</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="O18" t="inlineStr">
         <is>
           <t>MAKANJUOLA MOSHOOD
 ODEYALE OLUWASEGUN DANIEL</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -1468,31 +1716,44 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
+          <t>AYEGBAMI OLORUNSOGOTEKORO ILARA, MOJODA</t>
+        </is>
+      </c>
+      <c r="I19">
+        <v>82</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>22, Ilara Road, Ibonwon.</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
           <t>LVASA/7/82/23</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="M19" t="inlineStr">
         <is>
           <t>tab16</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="N19" t="inlineStr">
         <is>
           <t>2024-03-09</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="O19" t="inlineStr">
         <is>
           <t>OJO MOSHOOD ADEMUYIWA
 OMOBOLAJI LASISI</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -1528,31 +1789,49 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
+          <t>AYEGBAMI OLORUNSOGOTEKORO ILARA, MOJODA</t>
+        </is>
+      </c>
+      <c r="I20">
+        <v>82</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>1 Ajegunle Street off Ilara Road Ibonwon     The first compound, off Ilara Road, Ibonwon.</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>The main building</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
           <t>LVASA/7/82/30</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="M20" t="inlineStr">
         <is>
           <t>tab16</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="N20" t="inlineStr">
         <is>
           <t>2024-03-09</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="O20" t="inlineStr">
         <is>
           <t>OJO MOSHOOD ADEMUYIWA
 OMOBOLAJI LASISI</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -1588,31 +1867,44 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
+          <t>IGA OBA ALARA, MOJODA</t>
+        </is>
+      </c>
+      <c r="I21">
+        <v>94</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Adamson Compound, 1 Iga Oba Street</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
           <t>LVASA/7/94/27</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="M21" t="inlineStr">
         <is>
           <t>tab16</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="N21" t="inlineStr">
         <is>
           <t>2024-03-10</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="O21" t="inlineStr">
         <is>
           <t>OJO MOSHOOD ADEMUYIWA
 OMOBOLAJI LASISI</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -1648,31 +1940,44 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
+          <t>IGA OBA ALARA, MOJODA</t>
+        </is>
+      </c>
+      <c r="I22">
+        <v>94</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Adamson Compound, 1 Iga Oba Street</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
           <t>LVASA/7/94/27</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="M22" t="inlineStr">
         <is>
           <t>tab16</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="N22" t="inlineStr">
         <is>
           <t>2024-03-10</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
+      <c r="O22" t="inlineStr">
         <is>
           <t>OJO MOSHOOD ADEMUYIWA
 OMOBOLAJI LASISI</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -1708,31 +2013,39 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
+          <t>8/10 BOLAJI ONILENLA STREET (ADDO), ADDO</t>
+        </is>
+      </c>
+      <c r="I23">
+        <v>1732</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
           <t>LVASA/8/1732/34</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="M23" t="inlineStr">
         <is>
           <t>tab21</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="N23" t="inlineStr">
         <is>
           <t>05/03/2024</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
+      <c r="O23" t="inlineStr">
         <is>
           <t>MOUDU ROSEWA ROSEMARY
 EFFIONG HAPPINESS</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -1768,31 +2081,39 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
+          <t>84, ISALE EBUTE STREET, ADDO</t>
+        </is>
+      </c>
+      <c r="I24">
+        <v>1900</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
           <t>LVASA/8/1900/7</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="M24" t="inlineStr">
         <is>
           <t>tab21</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="N24" t="inlineStr">
         <is>
           <t>05/03/2024</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
+      <c r="O24" t="inlineStr">
         <is>
           <t>MOUDU ROSEWA ROSEMARY
 EFFIONG HAPPINESS</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -1828,31 +2149,39 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
+          <t>8/10 BOLAJI ONILENLA STREET (ADDO), ADDO</t>
+        </is>
+      </c>
+      <c r="I25">
+        <v>1732</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
           <t>LVASA/8/1732/48</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="M25" t="inlineStr">
         <is>
           <t>tab21</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="N25" t="inlineStr">
         <is>
           <t>05/03/2024</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
+      <c r="O25" t="inlineStr">
         <is>
           <t>MOUDU ROSEWA ROSEMARY
 EFFIONG HAPPINESS</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -1888,31 +2217,49 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
+          <t>BADA, MAFOLUKU</t>
+        </is>
+      </c>
+      <c r="I26">
+        <v>958</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>1 bada Street off mafoluku Oshodi isolo Lagos</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Another Compound, opposite a No residential  building (church)</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
           <t>LVASA/18/958/16</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="M26" t="inlineStr">
         <is>
           <t>tab9</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="N26" t="inlineStr">
         <is>
           <t>2024-03-10</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
+      <c r="O26" t="inlineStr">
         <is>
           <t>UGOCHUKWU OBINNA
 YEKINI MUSIBAU</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -1943,31 +2290,44 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
+          <t>MOSALASHI / OLAYEMI STREET, MASAMASA</t>
+        </is>
+      </c>
+      <c r="I27">
+        <v>1688</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>4 moshalashi street maza maza</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
           <t>LVASA/4/1688/1</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
+      <c r="M27" t="inlineStr">
         <is>
           <t>tab15</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
+      <c r="N27" t="inlineStr">
         <is>
           <t>2024-03-11</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
+      <c r="O27" t="inlineStr">
         <is>
           <t>NA
 NA</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -2003,31 +2363,44 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
+          <t>AGBOYI 1, AGBOYI</t>
+        </is>
+      </c>
+      <c r="I28">
+        <v>1892</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Nil</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
           <t>LVASA/13/1892/6</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
+      <c r="M28" t="inlineStr">
         <is>
           <t>tab14</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
+      <c r="N28" t="inlineStr">
         <is>
           <t>2024-03-11</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
+      <c r="O28" t="inlineStr">
         <is>
           <t>ARANJU OLUKUNLE
 FUNMI AGBAJE</t>
         </is>
       </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -2063,31 +2436,44 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
+          <t>ARAROMI AREA, KETU EJIRIN</t>
+        </is>
+      </c>
+      <c r="I29">
+        <v>404</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>5, Oshokeji Street Ketu</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
           <t>LVASA/7/404/24</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="M29" t="inlineStr">
         <is>
           <t>tab16</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="N29" t="inlineStr">
         <is>
           <t>2024-03-12</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
+      <c r="O29" t="inlineStr">
         <is>
           <t>OJO MOSHOOD ADEMUYIWA
 OMOBOLAJI LASISI</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -2121,28 +2507,38 @@
           <t>Ibeju-Lekki</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>MOSALASI I, AKODO</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>15, Malara Street, Akodo</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
         <is>
           <t>tab2</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr">
+      <c r="N30" t="inlineStr">
         <is>
           <t>2024-03-13</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
+      <c r="O30" t="inlineStr">
         <is>
           <t>MAKANJUOLA MOSHOOD
 ODEYALE OLUWASEGUN DANIEL</t>
         </is>
       </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -2178,31 +2574,44 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
+          <t>92, LANGBASA ROAD, LANGBASA</t>
+        </is>
+      </c>
+      <c r="I31">
+        <v>1850</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>3, Abayomi street, LANGBASA bus stop by the police station</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
           <t>LVASA/8/1850/33</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
+      <c r="M31" t="inlineStr">
         <is>
           <t>tab21</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr">
+      <c r="N31" t="inlineStr">
         <is>
           <t>2024-03-13</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr">
+      <c r="O31" t="inlineStr">
         <is>
           <t>MOUDU ROSEWA ROSEMARY
 EFFIONG HAPPINESS</t>
         </is>
       </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -2238,31 +2647,44 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
+          <t>92, LANGBASA ROAD, LANGBASA</t>
+        </is>
+      </c>
+      <c r="I32">
+        <v>1850</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>6, Abayomi street, LANGBASA bus stop by the police station</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
           <t>LVASA/8/1850/37</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
+      <c r="M32" t="inlineStr">
         <is>
           <t>tab21</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr">
+      <c r="N32" t="inlineStr">
         <is>
           <t>2024-03-13</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr">
+      <c r="O32" t="inlineStr">
         <is>
           <t>MOUDU ROSEWA ROSEMARY
 EFFIONG HAPPINESS</t>
         </is>
       </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -2298,31 +2720,44 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
+          <t>ARAROMI RD, ELEKO</t>
+        </is>
+      </c>
+      <c r="I33">
+        <v>864</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Eckon Club building One of Nigeria, Araromi, Eleko</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
           <t>LVASA/9/864/3</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr">
+      <c r="M33" t="inlineStr">
         <is>
           <t>tab2</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr">
+      <c r="N33" t="inlineStr">
         <is>
           <t>2024-03-14</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr">
+      <c r="O33" t="inlineStr">
         <is>
           <t>MAKANJUOLA MOSHOOD
 ODEYALE OLUWASEGUN DANIEL</t>
         </is>
       </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -2356,28 +2791,38 @@
           <t>Epe</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr">
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>OLUWAKEMI MOSQUE, ITOKIN, ITOKIN</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>14, Ago-Ekiti Street Itoikin</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
         <is>
           <t>tab16</t>
         </is>
       </c>
-      <c r="J34" t="inlineStr">
+      <c r="N34" t="inlineStr">
         <is>
           <t>2024-03-14</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr">
+      <c r="O34" t="inlineStr">
         <is>
           <t>OJO MOSHOOD ADEMUYIWA
 OMOBOLAJI LASISI</t>
         </is>
       </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -2413,31 +2858,44 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
+          <t>MUSHIN ROAD/JOSEPH TONADE, ISHAGA</t>
+        </is>
+      </c>
+      <c r="I35">
+        <v>1398</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>55 Mushin Road off Ishaga isolo Lagos</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
           <t>LVASA/18/1398/26</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr">
+      <c r="M35" t="inlineStr">
         <is>
           <t>tab9</t>
         </is>
       </c>
-      <c r="J35" t="inlineStr">
+      <c r="N35" t="inlineStr">
         <is>
           <t>2024-03-14</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr">
+      <c r="O35" t="inlineStr">
         <is>
           <t>UGOCHUKWU OBINNA
 YEKINI MUSIBAU</t>
         </is>
       </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -2471,28 +2929,38 @@
           <t>Ifako-Ijaiye</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr">
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>ALHAJA SHITTU, OKO OBA</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>12 Ola Ofe Street</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
         <is>
           <t>tab54</t>
         </is>
       </c>
-      <c r="J36" t="inlineStr">
+      <c r="N36" t="inlineStr">
         <is>
           <t>2024-03-16</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr">
+      <c r="O36" t="inlineStr">
         <is>
           <t>OLUSOJI-AFOLABI OLUWATOSIN
 ODUMERU SAMIAT</t>
         </is>
       </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr">
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -2526,28 +2994,38 @@
           <t>Ibeju-Lekki</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr">
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>OKO LOMI, BOGIJE</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Opposite Ahmed Tinubu Road, ologunabo street</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
         <is>
           <t>tab2</t>
         </is>
       </c>
-      <c r="J37" t="inlineStr">
+      <c r="N37" t="inlineStr">
         <is>
           <t>2024-03-16</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr">
+      <c r="O37" t="inlineStr">
         <is>
           <t>MAKANJUOLA MOSHOOD
 ODEYALE OLUWASEGUN DANIEL</t>
         </is>
       </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr">
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>

--- a/Stillbirth.xlsx
+++ b/Stillbirth.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q37"/>
+  <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2968,64 +2968,194 @@
     </row>
     <row r="37">
       <c r="A37">
+        <v>6209</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Stillbirth</t>
+        </is>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" s="2">
+        <v>45211</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Ifako-Ijaiye</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>ALHAJA SHITTU, OKO OBA</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>12 Ola Ofe Street</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>tab54</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>2024-03-16</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>OLUSOJI-AFOLABI OLUWATOSIN
+ODUMERU SAMIAT</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
         <v>6318</v>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Stillbirth</t>
-        </is>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Stillbirth</t>
+        </is>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
         <v>3</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E38" s="2">
         <v>45192</v>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>Ibeju-Lekki</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>OKO LOMI, BOGIJE</t>
         </is>
       </c>
-      <c r="J37" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>Opposite Ahmed Tinubu Road, ologunabo street</t>
         </is>
       </c>
-      <c r="M37" t="inlineStr">
+      <c r="M38" t="inlineStr">
         <is>
           <t>tab2</t>
         </is>
       </c>
-      <c r="N37" t="inlineStr">
+      <c r="N38" t="inlineStr">
         <is>
           <t>2024-03-16</t>
         </is>
       </c>
-      <c r="O37" t="inlineStr">
+      <c r="O38" t="inlineStr">
         <is>
           <t>MAKANJUOLA MOSHOOD
 ODEYALE OLUWASEGUN DANIEL</t>
         </is>
       </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="Q37" t="inlineStr">
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>6318</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Stillbirth</t>
+        </is>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
+      <c r="E39" s="2">
+        <v>45192</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Ibeju-Lekki</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>OKO LOMI, BOGIJE</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Opposite Ahmed Tinubu Road, ologunabo street</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>tab2</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>2024-03-16</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>MAKANJUOLA MOSHOOD
+ODEYALE OLUWASEGUN DANIEL</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>

--- a/Stillbirth.xlsx
+++ b/Stillbirth.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q39"/>
+  <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -461,10 +461,18 @@
         </is>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="E2" s="2">
+        <v>45363</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -526,18 +534,10 @@
         </is>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2">
-        <v>45363</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
+        <v>1</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -1120,17 +1120,17 @@
         </is>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" s="2">
-        <v>44937</v>
+        <v>44420</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>32</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1193,17 +1193,17 @@
         </is>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" s="2">
-        <v>44420</v>
+        <v>44937</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>28</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -3156,6 +3156,537 @@
         </is>
       </c>
       <c r="Q39" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>6609</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Stillbirth</t>
+        </is>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40" s="2">
+        <v>45048</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Mushin</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>ISHAGA RD/MALLAM GANA, IDI - ARABA</t>
+        </is>
+      </c>
+      <c r="I40">
+        <v>956</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>6 Mallam Gana street off Ishaga road Idi Araba Mushin Lagos</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>LVASA/16/956/4</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>tab12</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>2024-03-16</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>ADEMOLA AKANDE
+RACHAEL OGHENEWAIRE</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>6609</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Stillbirth</t>
+        </is>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" s="2">
+        <v>45048</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Mushin</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>ISHAGA RD/MALLAM GANA, IDI - ARABA</t>
+        </is>
+      </c>
+      <c r="I41">
+        <v>956</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>6 Mallam Gana street off Ishaga road Idi Araba Mushin Lagos</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>LVASA/16/956/4</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>tab12</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>2024-03-16</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>ADEMOLA AKANDE
+RACHAEL OGHENEWAIRE</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>6683</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Stillbirth</t>
+        </is>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42" s="2">
+        <v>45263</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Epe</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>POBUNA RD/ITUNDENDEREN STR., POKA</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>4, Itu-dederen Street Poka Epe</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>tab16</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>2024-03-16</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>OJO MOSHOOD ADEMUYIWA
+OMOBOLAJI LASISI</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>6683</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Stillbirth</t>
+        </is>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43" s="2">
+        <v>45263</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Epe</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>POBUNA RD/ITUNDENDEREN STR., POKA</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>4, Itu-dederen Street Poka Epe</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>tab16</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>2024-03-16</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>OJO MOSHOOD ADEMUYIWA
+OMOBOLAJI LASISI</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>6696</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Stillbirth</t>
+        </is>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>6</v>
+      </c>
+      <c r="E44" s="2">
+        <v>45047</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Epe</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>POBUNA RD/ITUNDENDEREN STR., POKA</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>4, Pobona College Road</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>tab16</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>2024-03-17</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>OJO MOSHOOD ADEMUYIWA
+OMOBOLAJI LASISI</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>6710</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Stillbirth</t>
+        </is>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45" s="2">
+        <v>44941</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Epe</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>MAKALEWO ST/POBUNA ROAD, POKA</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>10, Lawo Road, Poka Epe</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>tab16</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>2024-03-17</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>OJO MOSHOOD ADEMUYIWA
+OMOBOLAJI LASISI</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>6714</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Stillbirth</t>
+        </is>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46" s="2">
+        <v>45278</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Epe</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>MAKALEWO ST/POBUNA ROAD, POKA</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>10, College Road Poka Epe</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>tab16</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>2024-03-17</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>OJO MOSHOOD ADEMUYIWA
+OMOBOLAJI LASISI</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>6843</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Stillbirth</t>
+        </is>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>6</v>
+      </c>
+      <c r="E47" s="2">
+        <v>45031</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Ojo</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>RAIMI/YEKINI STREET, ILEMBA AWORI</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>HOUSE NO 5, DAS STREET, ARAROMI BUS STOP, SHIBIRI ROAD, AJANGBADI, OJO, LAGOS.</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>tab20</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>NA
+NA</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>

--- a/Stillbirth.xlsx
+++ b/Stillbirth.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q47"/>
+  <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -992,6 +992,11 @@
           <t>Alimosho</t>
         </is>
       </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>OKESALU/FAPOHUNDA, IKOTUN</t>
+        </is>
+      </c>
       <c r="I9">
         <v>6898</v>
       </c>
@@ -1065,6 +1070,11 @@
           <t>Alimosho</t>
         </is>
       </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>OKESALU/FAPOHUNDA, IKOTUN</t>
+        </is>
+      </c>
       <c r="I10">
         <v>6898</v>
       </c>
@@ -1138,6 +1148,11 @@
           <t>Alimosho</t>
         </is>
       </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>OKESALU/FAPOHUNDA, IKOTUN</t>
+        </is>
+      </c>
       <c r="I11">
         <v>6898</v>
       </c>
@@ -1211,6 +1226,11 @@
           <t>Alimosho</t>
         </is>
       </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>OKESALU/FAPOHUNDA, IKOTUN</t>
+        </is>
+      </c>
       <c r="I12">
         <v>6898</v>
       </c>
@@ -1422,6 +1442,11 @@
           <t>Alimosho</t>
         </is>
       </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>OBASANJO ITAOLA, IKOTUN</t>
+        </is>
+      </c>
       <c r="I15">
         <v>6978</v>
       </c>
@@ -3687,6 +3712,136 @@
         </is>
       </c>
       <c r="Q47" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>7145</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Stillbirth</t>
+        </is>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48" s="2">
+        <v>45153</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Mushin</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>IJESHA  ROAD 2, ITIRE</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>86 Ijesha Room Mushin Lagos</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>tab12</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>ADEMOLA AKANDE
+RACHAEL OGHENEWAIRE</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>7150</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Stillbirth</t>
+        </is>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>3</v>
+      </c>
+      <c r="E49" s="2">
+        <v>45000</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Mushin</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>IJESHA  ROAD 2, ITIRE</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>96 ijesha Road Mushin the</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>tab12</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>ADEMOLA AKANDE
+RACHAEL OGHENEWAIRE</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>

--- a/Stillbirth.xlsx
+++ b/Stillbirth.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q49"/>
+  <dimension ref="A1:Q50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -461,17 +461,11 @@
         </is>
       </c>
       <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2">
-        <v>45363</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>28</t>
+        <v>1</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -534,10 +528,20 @@
         </is>
       </c>
       <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E3" s="2">
+        <v>45363</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -601,8 +605,10 @@
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4">
-        <v>4</v>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="E4" s="2">
         <v>45229</v>
@@ -679,8 +685,10 @@
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5">
-        <v>2</v>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="E5" s="2">
         <v>45015</v>
@@ -757,8 +765,10 @@
       <c r="C6">
         <v>2</v>
       </c>
-      <c r="D6">
-        <v>2</v>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="E6" s="2">
         <v>40571</v>
@@ -830,8 +840,10 @@
       <c r="C7">
         <v>3</v>
       </c>
-      <c r="D7">
-        <v>3</v>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="E7" s="2">
         <v>39309</v>
@@ -903,8 +915,10 @@
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8">
-        <v>1</v>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E8" s="2">
         <v>45310</v>
@@ -976,8 +990,10 @@
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="D9">
-        <v>2</v>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="E9" s="2">
         <v>44629</v>
@@ -1054,8 +1070,10 @@
       <c r="C10">
         <v>1</v>
       </c>
-      <c r="D10">
-        <v>1</v>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E10" s="2">
         <v>45332</v>
@@ -1130,17 +1148,19 @@
         </is>
       </c>
       <c r="C11">
-        <v>3</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E11" s="2">
-        <v>44420</v>
+        <v>44937</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>28</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1208,17 +1228,19 @@
         </is>
       </c>
       <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E12" s="2">
-        <v>44937</v>
+        <v>44420</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>32</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1288,8 +1310,10 @@
       <c r="C13">
         <v>1</v>
       </c>
-      <c r="D13">
-        <v>1</v>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E13" s="2">
         <v>42262</v>
@@ -1361,8 +1385,10 @@
       <c r="C14">
         <v>1</v>
       </c>
-      <c r="D14">
-        <v>1</v>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E14" s="2">
         <v>45326</v>
@@ -1426,8 +1452,10 @@
       <c r="C15">
         <v>1</v>
       </c>
-      <c r="D15">
-        <v>3</v>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="E15" s="2">
         <v>45021</v>
@@ -1504,8 +1532,10 @@
       <c r="C16">
         <v>1</v>
       </c>
-      <c r="D16">
-        <v>2</v>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="E16" s="2">
         <v>45550</v>
@@ -1577,8 +1607,10 @@
       <c r="C17">
         <v>1</v>
       </c>
-      <c r="D17">
-        <v>1</v>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E17" s="2">
         <v>45154</v>
@@ -1650,8 +1682,10 @@
       <c r="C18">
         <v>1</v>
       </c>
-      <c r="D18">
-        <v>5</v>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="E18" s="2">
         <v>45309</v>
@@ -1723,8 +1757,10 @@
       <c r="C19">
         <v>1</v>
       </c>
-      <c r="D19">
-        <v>2</v>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="E19" s="2">
         <v>45061</v>
@@ -1796,8 +1832,10 @@
       <c r="C20">
         <v>1</v>
       </c>
-      <c r="D20">
-        <v>1</v>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E20" s="2">
         <v>45326</v>
@@ -1874,8 +1912,10 @@
       <c r="C21">
         <v>1</v>
       </c>
-      <c r="D21">
-        <v>3</v>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="E21" s="2">
         <v>45082</v>
@@ -1947,8 +1987,10 @@
       <c r="C22">
         <v>2</v>
       </c>
-      <c r="D22">
-        <v>4</v>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="E22" s="2">
         <v>45543</v>
@@ -2020,8 +2062,10 @@
       <c r="C23">
         <v>2</v>
       </c>
-      <c r="D23">
-        <v>7</v>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="E23" s="2">
         <v>45008</v>
@@ -2088,8 +2132,10 @@
       <c r="C24">
         <v>1</v>
       </c>
-      <c r="D24">
-        <v>3</v>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="E24" s="2">
         <v>45306</v>
@@ -2156,8 +2202,10 @@
       <c r="C25">
         <v>2</v>
       </c>
-      <c r="D25">
-        <v>23</v>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
       </c>
       <c r="E25" s="2">
         <v>44910</v>
@@ -2224,8 +2272,10 @@
       <c r="C26">
         <v>1</v>
       </c>
-      <c r="D26">
-        <v>1</v>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E26" s="2">
         <v>45029</v>
@@ -2302,8 +2352,10 @@
       <c r="C27">
         <v>1</v>
       </c>
-      <c r="D27">
-        <v>2</v>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="E27" s="2">
         <v>45182</v>
@@ -2370,8 +2422,10 @@
       <c r="C28">
         <v>1</v>
       </c>
-      <c r="D28">
-        <v>1</v>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E28" s="2">
         <v>44321</v>
@@ -2443,8 +2497,10 @@
       <c r="C29">
         <v>1</v>
       </c>
-      <c r="D29">
-        <v>1</v>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E29" s="2">
         <v>45327</v>
@@ -2516,8 +2572,10 @@
       <c r="C30">
         <v>1</v>
       </c>
-      <c r="D30">
-        <v>5</v>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="E30" s="2">
         <v>45245</v>
@@ -2581,8 +2639,10 @@
       <c r="C31">
         <v>1</v>
       </c>
-      <c r="D31">
-        <v>3</v>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="E31" s="2">
         <v>45307</v>
@@ -2654,8 +2714,10 @@
       <c r="C32">
         <v>1</v>
       </c>
-      <c r="D32">
-        <v>1</v>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E32" s="2">
         <v>45354</v>
@@ -2727,8 +2789,10 @@
       <c r="C33">
         <v>1</v>
       </c>
-      <c r="D33">
-        <v>4</v>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="E33" s="2">
         <v>44985</v>
@@ -2800,8 +2864,10 @@
       <c r="C34">
         <v>1</v>
       </c>
-      <c r="D34">
-        <v>1</v>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E34" s="2">
         <v>45243</v>
@@ -2865,8 +2931,10 @@
       <c r="C35">
         <v>1</v>
       </c>
-      <c r="D35">
-        <v>4</v>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="E35" s="2">
         <v>45312</v>
@@ -2938,8 +3006,10 @@
       <c r="C36">
         <v>1</v>
       </c>
-      <c r="D36">
-        <v>1</v>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E36" s="2">
         <v>45211</v>
@@ -3003,8 +3073,10 @@
       <c r="C37">
         <v>1</v>
       </c>
-      <c r="D37">
-        <v>1</v>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E37" s="2">
         <v>45211</v>
@@ -3068,8 +3140,10 @@
       <c r="C38">
         <v>1</v>
       </c>
-      <c r="D38">
-        <v>3</v>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="E38" s="2">
         <v>45192</v>
@@ -3133,8 +3207,10 @@
       <c r="C39">
         <v>1</v>
       </c>
-      <c r="D39">
-        <v>3</v>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="E39" s="2">
         <v>45192</v>
@@ -3198,8 +3274,10 @@
       <c r="C40">
         <v>1</v>
       </c>
-      <c r="D40">
-        <v>1</v>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E40" s="2">
         <v>45048</v>
@@ -3271,8 +3349,10 @@
       <c r="C41">
         <v>1</v>
       </c>
-      <c r="D41">
-        <v>1</v>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E41" s="2">
         <v>45048</v>
@@ -3344,8 +3424,10 @@
       <c r="C42">
         <v>1</v>
       </c>
-      <c r="D42">
-        <v>1</v>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E42" s="2">
         <v>45263</v>
@@ -3409,8 +3491,10 @@
       <c r="C43">
         <v>1</v>
       </c>
-      <c r="D43">
-        <v>1</v>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E43" s="2">
         <v>45263</v>
@@ -3474,8 +3558,10 @@
       <c r="C44">
         <v>1</v>
       </c>
-      <c r="D44">
-        <v>6</v>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="E44" s="2">
         <v>45047</v>
@@ -3539,8 +3625,10 @@
       <c r="C45">
         <v>1</v>
       </c>
-      <c r="D45">
-        <v>1</v>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E45" s="2">
         <v>44941</v>
@@ -3604,8 +3692,10 @@
       <c r="C46">
         <v>1</v>
       </c>
-      <c r="D46">
-        <v>1</v>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E46" s="2">
         <v>45278</v>
@@ -3669,8 +3759,10 @@
       <c r="C47">
         <v>1</v>
       </c>
-      <c r="D47">
-        <v>6</v>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="E47" s="2">
         <v>45031</v>
@@ -3729,8 +3821,10 @@
       <c r="C48">
         <v>1</v>
       </c>
-      <c r="D48">
-        <v>1</v>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E48" s="2">
         <v>45153</v>
@@ -3794,8 +3888,10 @@
       <c r="C49">
         <v>1</v>
       </c>
-      <c r="D49">
-        <v>3</v>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="E49" s="2">
         <v>45000</v>
@@ -3842,6 +3938,73 @@
         </is>
       </c>
       <c r="Q49" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>8713</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Stillbirth</t>
+        </is>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>09056610459</t>
+        </is>
+      </c>
+      <c r="E50" s="2">
+        <v>45357</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Ikorodu</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>LABAKA STREET, IBESHE</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Labaka street  Ibeshe road owode Ibeshe. Fadeyi street off Japheth street 1</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>tab18</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>2024-03-22</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>AYOKU DAMILOLA
+SANNI EZEKIEL</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>

--- a/Stillbirth.xlsx
+++ b/Stillbirth.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q50"/>
+  <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3615,7 +3615,7 @@
     </row>
     <row r="45">
       <c r="A45">
-        <v>6710</v>
+        <v>6696</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -3627,15 +3627,15 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E45" s="2">
-        <v>44941</v>
+        <v>45047</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -3645,12 +3645,12 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>MAKALEWO ST/POBUNA ROAD, POKA</t>
+          <t>POBUNA RD/ITUNDENDEREN STR., POKA</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>10, Lawo Road, Poka Epe</t>
+          <t>4, Pobona College Road</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
@@ -3682,7 +3682,7 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>6714</v>
+        <v>6710</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -3698,11 +3698,11 @@
         </is>
       </c>
       <c r="E46" s="2">
-        <v>45278</v>
+        <v>44941</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>16</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -3717,7 +3717,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>10, College Road Poka Epe</t>
+          <t>10, Lawo Road, Poka Epe</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
@@ -3749,262 +3749,793 @@
     </row>
     <row r="47">
       <c r="A47">
+        <v>6710</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Stillbirth</t>
+        </is>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E47" s="2">
+        <v>44941</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Epe</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>MAKALEWO ST/POBUNA ROAD, POKA</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>10, Lawo Road, Poka Epe</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>tab16</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>2024-03-17</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>OJO MOSHOOD ADEMUYIWA
+OMOBOLAJI LASISI</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>6714</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Stillbirth</t>
+        </is>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E48" s="2">
+        <v>45278</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Epe</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>MAKALEWO ST/POBUNA ROAD, POKA</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>10, College Road Poka Epe</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>tab16</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>2024-03-17</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>OJO MOSHOOD ADEMUYIWA
+OMOBOLAJI LASISI</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>6714</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Stillbirth</t>
+        </is>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E49" s="2">
+        <v>45278</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Epe</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>MAKALEWO ST/POBUNA ROAD, POKA</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>10, College Road Poka Epe</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>tab16</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>2024-03-17</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>OJO MOSHOOD ADEMUYIWA
+OMOBOLAJI LASISI</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
         <v>6843</v>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Stillbirth</t>
-        </is>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47" t="inlineStr">
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Stillbirth</t>
+        </is>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E47" s="2">
+      <c r="E50" s="2">
         <v>45031</v>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>Ojo</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>RAIMI/YEKINI STREET, ILEMBA AWORI</t>
         </is>
       </c>
-      <c r="J47" t="inlineStr">
+      <c r="J50" t="inlineStr">
         <is>
           <t>HOUSE NO 5, DAS STREET, ARAROMI BUS STOP, SHIBIRI ROAD, AJANGBADI, OJO, LAGOS.</t>
         </is>
       </c>
-      <c r="M47" t="inlineStr">
+      <c r="M50" t="inlineStr">
         <is>
           <t>tab20</t>
         </is>
       </c>
-      <c r="N47" t="inlineStr">
+      <c r="N50" t="inlineStr">
         <is>
           <t>2024-03-18</t>
         </is>
       </c>
-      <c r="O47" t="inlineStr">
+      <c r="O50" t="inlineStr">
         <is>
           <t>NA
 NA</t>
         </is>
       </c>
-      <c r="P47" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="Q47" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48">
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>6843</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Stillbirth</t>
+        </is>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E51" s="2">
+        <v>45031</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Ojo</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>RAIMI/YEKINI STREET, ILEMBA AWORI</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>HOUSE NO 5, DAS STREET, ARAROMI BUS STOP, SHIBIRI ROAD, AJANGBADI, OJO, LAGOS.</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>tab20</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>NA
+NA</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
         <v>7145</v>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Stillbirth</t>
-        </is>
-      </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="D48" t="inlineStr">
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Stillbirth</t>
+        </is>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="E48" s="2">
+      <c r="E52" s="2">
         <v>45153</v>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>Mushin</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>IJESHA  ROAD 2, ITIRE</t>
         </is>
       </c>
-      <c r="J48" t="inlineStr">
+      <c r="J52" t="inlineStr">
         <is>
           <t>86 Ijesha Room Mushin Lagos</t>
         </is>
       </c>
-      <c r="M48" t="inlineStr">
+      <c r="M52" t="inlineStr">
         <is>
           <t>tab12</t>
         </is>
       </c>
-      <c r="N48" t="inlineStr">
+      <c r="N52" t="inlineStr">
         <is>
           <t>2024-03-18</t>
         </is>
       </c>
-      <c r="O48" t="inlineStr">
+      <c r="O52" t="inlineStr">
         <is>
           <t>ADEMOLA AKANDE
 RACHAEL OGHENEWAIRE</t>
         </is>
       </c>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="Q48" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49">
-        <v>7150</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Stillbirth</t>
-        </is>
-      </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E49" s="2">
-        <v>45000</v>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>7145</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Stillbirth</t>
+        </is>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E53" s="2">
+        <v>45153</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
         <is>
           <t>Mushin</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>IJESHA  ROAD 2, ITIRE</t>
         </is>
       </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>96 ijesha Road Mushin the</t>
-        </is>
-      </c>
-      <c r="M49" t="inlineStr">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>86 Ijesha Room Mushin Lagos</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
         <is>
           <t>tab12</t>
         </is>
       </c>
-      <c r="N49" t="inlineStr">
+      <c r="N53" t="inlineStr">
         <is>
           <t>2024-03-18</t>
         </is>
       </c>
-      <c r="O49" t="inlineStr">
+      <c r="O53" t="inlineStr">
         <is>
           <t>ADEMOLA AKANDE
 RACHAEL OGHENEWAIRE</t>
         </is>
       </c>
-      <c r="P49" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="Q49" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50">
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>7150</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Stillbirth</t>
+        </is>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E54" s="2">
+        <v>45000</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Mushin</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>IJESHA  ROAD 2, ITIRE</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>96 ijesha Road Mushin the</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>tab12</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>ADEMOLA AKANDE
+RACHAEL OGHENEWAIRE</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>7150</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Stillbirth</t>
+        </is>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E55" s="2">
+        <v>45000</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Mushin</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>IJESHA  ROAD 2, ITIRE</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>96 ijesha Road Mushin the</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>tab12</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>ADEMOLA AKANDE
+RACHAEL OGHENEWAIRE</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
         <v>8713</v>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Stillbirth</t>
-        </is>
-      </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-      <c r="D50" t="inlineStr">
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Stillbirth</t>
+        </is>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>09056610459</t>
         </is>
       </c>
-      <c r="E50" s="2">
+      <c r="E56" s="2">
         <v>45357</v>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>Ikorodu</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>LABAKA STREET, IBESHE</t>
         </is>
       </c>
-      <c r="J50" t="inlineStr">
+      <c r="J56" t="inlineStr">
         <is>
           <t>Labaka street  Ibeshe road owode Ibeshe. Fadeyi street off Japheth street 1</t>
         </is>
       </c>
-      <c r="M50" t="inlineStr">
+      <c r="M56" t="inlineStr">
         <is>
           <t>tab18</t>
         </is>
       </c>
-      <c r="N50" t="inlineStr">
+      <c r="N56" t="inlineStr">
         <is>
           <t>2024-03-22</t>
         </is>
       </c>
-      <c r="O50" t="inlineStr">
+      <c r="O56" t="inlineStr">
         <is>
           <t>AYOKU DAMILOLA
 SANNI EZEKIEL</t>
         </is>
       </c>
-      <c r="P50" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="Q50" t="inlineStr">
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>8713</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Stillbirth</t>
+        </is>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>09056610459</t>
+        </is>
+      </c>
+      <c r="E57" s="2">
+        <v>45357</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Ikorodu</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>LABAKA STREET, IBESHE</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Labaka street  Ibeshe road owode Ibeshe. Fadeyi street off Japheth street 1</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>tab18</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>2024-03-22</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>AYOKU DAMILOLA
+SANNI EZEKIEL</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>8844</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Stillbirth</t>
+        </is>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E58" s="2">
+        <v>44936</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Amuwo odofin</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>OLALEYE STREET, AMUWO ODOFIN</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Plot 1334A Olaleye Oluwa Street Unity State Amuwo Odofin Lagos</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>tab9</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>2024-03-21</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>NA
+NA</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q58" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>

--- a/Stillbirth.xlsx
+++ b/Stillbirth.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q58"/>
+  <dimension ref="A1:Q61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4541,6 +4541,223 @@
         </is>
       </c>
     </row>
+    <row r="59">
+      <c r="A59">
+        <v>9182</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Stillbirth</t>
+        </is>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E59" s="2">
+        <v>45061</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Agege</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>ALAGBEGBA STREET, ISALE OJA</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>72 Capitol Road Isale oja,Agege Lagos</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>tab12</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>2024-03-22</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>EDOJAH RUTH HAPPINESS
+OLABIYI OLAJIDE</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>10131</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Stillbirth</t>
+        </is>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E60" s="2">
+        <v>45275</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Kosofe</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>BAMGBOYE STREET, AGILITI</t>
+        </is>
+      </c>
+      <c r="I60">
+        <v>390</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>1, BAMGBOYE STREET AGILITI</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>LVASA/13/390/7</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>tab14</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>2024-03-26</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>ARANJU OLUKUNLE
+FUNMI AGBAJE</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>10131</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Stillbirth</t>
+        </is>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E61" s="2">
+        <v>45275</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Kosofe</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>BAMGBOYE STREET, AGILITI</t>
+        </is>
+      </c>
+      <c r="I61">
+        <v>390</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>1, BAMGBOYE STREET AGILITI</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>LVASA/13/390/7</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>tab14</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>2024-03-26</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>ARANJU OLUKUNLE
+FUNMI AGBAJE</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Stillbirth.xlsx
+++ b/Stillbirth.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q61"/>
+  <dimension ref="A1:Q63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1300,595 +1300,585 @@
     </row>
     <row r="13">
       <c r="A13">
+        <v>1207</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Stillbirth</t>
+        </is>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E13" s="2">
+        <v>45119</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Amuwo odofin</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>ADE OSHODI ST. AKINTOMIDE, IJEGUN</t>
+        </is>
+      </c>
+      <c r="I13">
+        <v>1330</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>68 Ade oshodi ijegun</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>LVASA/4/1330/42</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>tab15</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>NA
+NA</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
         <v>1394</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Stillbirth</t>
-        </is>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" t="inlineStr">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Stillbirth</t>
+        </is>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="E13" s="2">
+      <c r="E14" s="2">
         <v>42262</v>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>38</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>Kosofe</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>OLADUNDE /DEMURIN, MILE 12</t>
         </is>
       </c>
-      <c r="I13">
+      <c r="I14">
         <v>1232</v>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>33, Oladipo Street Ketu-Alapere</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>LVASA/13/1232/4</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>tab14</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>2024-03-07</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>ARANJU OLUKUNLE
 FUNMI AGBAJE</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14">
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
         <v>1781</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Stillbirth</t>
-        </is>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" t="inlineStr">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Stillbirth</t>
+        </is>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="E14" s="2">
+      <c r="E15" s="2">
         <v>45326</v>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>08</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>Epe</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>AYEGBAMI OLORUNSOGOTEKORO ILARA, MOJODA</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>11, Idiroko, Ibonwon Eredo along Ilara Road.</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>tab16</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>2024-03-08</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>OJO MOSHOOD ADEMUYIWA
 OMOBOLAJI LASISI</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15">
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
         <v>1894</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Stillbirth</t>
-        </is>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15" t="inlineStr">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Stillbirth</t>
+        </is>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E15" s="2">
+      <c r="E16" s="2">
         <v>45021</v>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>Alimosho</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>OBASANJO ITAOLA, IKOTUN</t>
         </is>
       </c>
-      <c r="I15">
+      <c r="I16">
         <v>6978</v>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>8 OBASANJO ITAYOLA STREET</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>8 OBASANJO ITAYOLA STREET, A BUNGALOW</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>LVASA/3/6978/14</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>tab3</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="N16" t="inlineStr">
         <is>
           <t>2024-03-08</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>MICHAEL GLORIA
 JOSIAH OGUNJOBI</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16">
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
         <v>1946</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Stillbirth</t>
-        </is>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16" t="inlineStr">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Stillbirth</t>
+        </is>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E16" s="2">
+      <c r="E17" s="2">
         <v>45550</v>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>Somolu</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>23,OLOJA STREET, BARIGA</t>
         </is>
       </c>
-      <c r="I16">
+      <c r="I17">
         <v>296</v>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>Number 9, Adesina street</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>LVASA/19/296/19</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>tab5</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="N17" t="inlineStr">
         <is>
           <t>2024-03-08</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>AGBALAYA SEKINAT
 OLUDURO CHRISTIANA OLUWATOBI</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17">
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
         <v>1953</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Stillbirth</t>
-        </is>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17" t="inlineStr">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Stillbirth</t>
+        </is>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="E17" s="2">
+      <c r="E18" s="2">
         <v>45154</v>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>Mushin</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>OLANIBI / BELLO, PAPA-AJAO</t>
         </is>
       </c>
-      <c r="I17">
+      <c r="I18">
         <v>72</v>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>43/ 46 Olanibi street off Ladipo road Mushin Lagos</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="L18" t="inlineStr">
         <is>
           <t>LVASA/16/72/6</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>tab12</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="N18" t="inlineStr">
         <is>
           <t>2024-03-08</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
+      <c r="O18" t="inlineStr">
         <is>
           <t>ADEMOLA AKANDE
 RACHAEL OGHENEWAIRE</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18">
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
         <v>2275</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Stillbirth</t>
-        </is>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18" t="inlineStr">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Stillbirth</t>
+        </is>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E18" s="2">
+      <c r="E19" s="2">
         <v>45309</v>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>Ibeju-Lekki</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>OLORUNSOGO/ELEKO/BALOGUN, ELEKO</t>
         </is>
       </c>
-      <c r="I18">
+      <c r="I19">
         <v>854</v>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>26b, Olorunsogo street</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="L19" t="inlineStr">
         <is>
           <t>LVASA/9/854/35</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="M19" t="inlineStr">
         <is>
           <t>tab2</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="N19" t="inlineStr">
         <is>
           <t>2024-03-09</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
+      <c r="O19" t="inlineStr">
         <is>
           <t>MAKANJUOLA MOSHOOD
 ODEYALE OLUWASEGUN DANIEL</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19">
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
         <v>2299</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Stillbirth</t>
-        </is>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19" t="inlineStr">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Stillbirth</t>
+        </is>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E19" s="2">
+      <c r="E20" s="2">
         <v>45061</v>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>Epe</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>AYEGBAMI OLORUNSOGOTEKORO ILARA, MOJODA</t>
         </is>
       </c>
-      <c r="I19">
+      <c r="I20">
         <v>82</v>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>22, Ilara Road, Ibonwon.</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="L20" t="inlineStr">
         <is>
           <t>LVASA/7/82/23</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
+      <c r="M20" t="inlineStr">
         <is>
           <t>tab16</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
+      <c r="N20" t="inlineStr">
         <is>
           <t>2024-03-09</t>
         </is>
       </c>
-      <c r="O19" t="inlineStr">
+      <c r="O20" t="inlineStr">
         <is>
           <t>OJO MOSHOOD ADEMUYIWA
 OMOBOLAJI LASISI</t>
         </is>
       </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20">
-        <v>2321</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Stillbirth</t>
-        </is>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E20" s="2">
-        <v>45326</v>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>Epe</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>AYEGBAMI OLORUNSOGOTEKORO ILARA, MOJODA</t>
-        </is>
-      </c>
-      <c r="I20">
-        <v>82</v>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>1 Ajegunle Street off Ilara Road Ibonwon     The first compound, off Ilara Road, Ibonwon.</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>The main building</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>LVASA/7/82/30</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>tab16</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>2024-03-09</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>OJO MOSHOOD ADEMUYIWA
-OMOBOLAJI LASISI</t>
-        </is>
-      </c>
       <c r="P20" t="inlineStr">
         <is>
           <t>Approved</t>
@@ -1902,7 +1892,7 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>2744</v>
+        <v>2321</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1914,15 +1904,15 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E21" s="2">
-        <v>45082</v>
+        <v>45326</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>34</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1932,20 +1922,25 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>IGA OBA ALARA, MOJODA</t>
+          <t>AYEGBAMI OLORUNSOGOTEKORO ILARA, MOJODA</t>
         </is>
       </c>
       <c r="I21">
-        <v>94</v>
+        <v>82</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>1 Ajegunle Street off Ilara Road Ibonwon     The first compound, off Ilara Road, Ibonwon.</t>
+        </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Adamson Compound, 1 Iga Oba Street</t>
+          <t>The main building</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>LVASA/7/94/27</t>
+          <t>LVASA/7/82/30</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -1955,7 +1950,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>2024-03-10</t>
+          <t>2024-03-09</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -1985,15 +1980,15 @@
         </is>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E22" s="2">
-        <v>45543</v>
+        <v>45082</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -2052,7 +2047,7 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>3231</v>
+        <v>2744</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -2064,990 +2059,998 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E23" s="2">
+        <v>45543</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Epe</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>IGA OBA ALARA, MOJODA</t>
+        </is>
+      </c>
+      <c r="I23">
+        <v>94</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Adamson Compound, 1 Iga Oba Street</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>LVASA/7/94/27</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>tab16</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>2024-03-10</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>OJO MOSHOOD ADEMUYIWA
+OMOBOLAJI LASISI</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>3231</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Stillbirth</t>
+        </is>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E23" s="2">
+      <c r="E24" s="2">
         <v>45008</v>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>41</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>Eti-Osa</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>8/10 BOLAJI ONILENLA STREET (ADDO), ADDO</t>
         </is>
       </c>
-      <c r="I23">
+      <c r="I24">
         <v>1732</v>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="L24" t="inlineStr">
         <is>
           <t>LVASA/8/1732/34</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr">
+      <c r="M24" t="inlineStr">
         <is>
           <t>tab21</t>
         </is>
       </c>
-      <c r="N23" t="inlineStr">
+      <c r="N24" t="inlineStr">
         <is>
           <t>05/03/2024</t>
         </is>
       </c>
-      <c r="O23" t="inlineStr">
+      <c r="O24" t="inlineStr">
         <is>
           <t>MOUDU ROSEWA ROSEMARY
 EFFIONG HAPPINESS</t>
         </is>
       </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24">
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
         <v>3359</v>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Stillbirth</t>
-        </is>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24" t="inlineStr">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Stillbirth</t>
+        </is>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E24" s="2">
+      <c r="E25" s="2">
         <v>45306</v>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>Eti-Osa</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>84, ISALE EBUTE STREET, ADDO</t>
         </is>
       </c>
-      <c r="I24">
+      <c r="I25">
         <v>1900</v>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="L25" t="inlineStr">
         <is>
           <t>LVASA/8/1900/7</t>
         </is>
       </c>
-      <c r="M24" t="inlineStr">
+      <c r="M25" t="inlineStr">
         <is>
           <t>tab21</t>
         </is>
       </c>
-      <c r="N24" t="inlineStr">
+      <c r="N25" t="inlineStr">
         <is>
           <t>05/03/2024</t>
         </is>
       </c>
-      <c r="O24" t="inlineStr">
+      <c r="O25" t="inlineStr">
         <is>
           <t>MOUDU ROSEWA ROSEMARY
 EFFIONG HAPPINESS</t>
         </is>
       </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25">
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
         <v>3382</v>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Stillbirth</t>
-        </is>
-      </c>
-      <c r="C25">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Stillbirth</t>
+        </is>
+      </c>
+      <c r="C26">
         <v>2</v>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="E25" s="2">
+      <c r="E26" s="2">
         <v>44910</v>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>32</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>Eti-Osa</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>8/10 BOLAJI ONILENLA STREET (ADDO), ADDO</t>
         </is>
       </c>
-      <c r="I25">
+      <c r="I26">
         <v>1732</v>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="L26" t="inlineStr">
         <is>
           <t>LVASA/8/1732/48</t>
         </is>
       </c>
-      <c r="M25" t="inlineStr">
+      <c r="M26" t="inlineStr">
         <is>
           <t>tab21</t>
         </is>
       </c>
-      <c r="N25" t="inlineStr">
+      <c r="N26" t="inlineStr">
         <is>
           <t>05/03/2024</t>
         </is>
       </c>
-      <c r="O25" t="inlineStr">
+      <c r="O26" t="inlineStr">
         <is>
           <t>MOUDU ROSEWA ROSEMARY
 EFFIONG HAPPINESS</t>
         </is>
       </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26">
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
         <v>3547</v>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Stillbirth</t>
-        </is>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26" t="inlineStr">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Stillbirth</t>
+        </is>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="E26" s="2">
+      <c r="E27" s="2">
         <v>45029</v>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>Oshodi-Isolo</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>BADA, MAFOLUKU</t>
         </is>
       </c>
-      <c r="I26">
+      <c r="I27">
         <v>958</v>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>1 bada Street off mafoluku Oshodi isolo Lagos</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>Another Compound, opposite a No residential  building (church)</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="L27" t="inlineStr">
         <is>
           <t>LVASA/18/958/16</t>
         </is>
       </c>
-      <c r="M26" t="inlineStr">
+      <c r="M27" t="inlineStr">
         <is>
           <t>tab9</t>
         </is>
       </c>
-      <c r="N26" t="inlineStr">
+      <c r="N27" t="inlineStr">
         <is>
           <t>2024-03-10</t>
         </is>
       </c>
-      <c r="O26" t="inlineStr">
+      <c r="O27" t="inlineStr">
         <is>
           <t>UGOCHUKWU OBINNA
 YEKINI MUSIBAU</t>
         </is>
       </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27">
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
         <v>3601</v>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Stillbirth</t>
-        </is>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27" t="inlineStr">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Stillbirth</t>
+        </is>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E27" s="2">
+      <c r="E28" s="2">
         <v>45182</v>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>Amuwo odofin</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>MOSALASHI / OLAYEMI STREET, MASAMASA</t>
         </is>
       </c>
-      <c r="I27">
+      <c r="I28">
         <v>1688</v>
       </c>
-      <c r="J27" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>4 moshalashi street maza maza</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="L28" t="inlineStr">
         <is>
           <t>LVASA/4/1688/1</t>
         </is>
       </c>
-      <c r="M27" t="inlineStr">
+      <c r="M28" t="inlineStr">
         <is>
           <t>tab15</t>
         </is>
       </c>
-      <c r="N27" t="inlineStr">
+      <c r="N28" t="inlineStr">
         <is>
           <t>2024-03-11</t>
         </is>
       </c>
-      <c r="O27" t="inlineStr">
+      <c r="O28" t="inlineStr">
         <is>
           <t>NA
 NA</t>
         </is>
       </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28">
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
         <v>3792</v>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Stillbirth</t>
-        </is>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28" t="inlineStr">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Stillbirth</t>
+        </is>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="E28" s="2">
+      <c r="E29" s="2">
         <v>44321</v>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>38</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>Kosofe</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>AGBOYI 1, AGBOYI</t>
         </is>
       </c>
-      <c r="I28">
+      <c r="I29">
         <v>1892</v>
       </c>
-      <c r="J28" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>Nil</t>
         </is>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="L29" t="inlineStr">
         <is>
           <t>LVASA/13/1892/6</t>
         </is>
       </c>
-      <c r="M28" t="inlineStr">
+      <c r="M29" t="inlineStr">
         <is>
           <t>tab14</t>
         </is>
       </c>
-      <c r="N28" t="inlineStr">
+      <c r="N29" t="inlineStr">
         <is>
           <t>2024-03-11</t>
         </is>
       </c>
-      <c r="O28" t="inlineStr">
+      <c r="O29" t="inlineStr">
         <is>
           <t>ARANJU OLUKUNLE
 FUNMI AGBAJE</t>
         </is>
       </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29">
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
         <v>4115</v>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Stillbirth</t>
-        </is>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29" t="inlineStr">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Stillbirth</t>
+        </is>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="E29" s="2">
+      <c r="E30" s="2">
         <v>45327</v>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>Epe</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>ARAROMI AREA, KETU EJIRIN</t>
         </is>
       </c>
-      <c r="I29">
+      <c r="I30">
         <v>404</v>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>5, Oshokeji Street Ketu</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="L30" t="inlineStr">
         <is>
           <t>LVASA/7/404/24</t>
         </is>
       </c>
-      <c r="M29" t="inlineStr">
+      <c r="M30" t="inlineStr">
         <is>
           <t>tab16</t>
         </is>
       </c>
-      <c r="N29" t="inlineStr">
+      <c r="N30" t="inlineStr">
         <is>
           <t>2024-03-12</t>
         </is>
       </c>
-      <c r="O29" t="inlineStr">
+      <c r="O30" t="inlineStr">
         <is>
           <t>OJO MOSHOOD ADEMUYIWA
 OMOBOLAJI LASISI</t>
         </is>
       </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30">
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
         <v>4640</v>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Stillbirth</t>
-        </is>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30" t="inlineStr">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Stillbirth</t>
+        </is>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E30" s="2">
+      <c r="E31" s="2">
         <v>45245</v>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>Ibeju-Lekki</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>MOSALASI I, AKODO</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>15, Malara Street, Akodo</t>
         </is>
       </c>
-      <c r="M30" t="inlineStr">
+      <c r="M31" t="inlineStr">
         <is>
           <t>tab2</t>
         </is>
       </c>
-      <c r="N30" t="inlineStr">
+      <c r="N31" t="inlineStr">
         <is>
           <t>2024-03-13</t>
         </is>
       </c>
-      <c r="O30" t="inlineStr">
+      <c r="O31" t="inlineStr">
         <is>
           <t>MAKANJUOLA MOSHOOD
 ODEYALE OLUWASEGUN DANIEL</t>
         </is>
       </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31">
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
         <v>4768</v>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Stillbirth</t>
-        </is>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31" t="inlineStr">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Stillbirth</t>
+        </is>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E31" s="2">
+      <c r="E32" s="2">
         <v>45307</v>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>32</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>Eti-Osa</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>92, LANGBASA ROAD, LANGBASA</t>
         </is>
       </c>
-      <c r="I31">
+      <c r="I32">
         <v>1850</v>
       </c>
-      <c r="J31" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>3, Abayomi street, LANGBASA bus stop by the police station</t>
         </is>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="L32" t="inlineStr">
         <is>
           <t>LVASA/8/1850/33</t>
         </is>
       </c>
-      <c r="M31" t="inlineStr">
+      <c r="M32" t="inlineStr">
         <is>
           <t>tab21</t>
         </is>
       </c>
-      <c r="N31" t="inlineStr">
+      <c r="N32" t="inlineStr">
         <is>
           <t>2024-03-13</t>
         </is>
       </c>
-      <c r="O31" t="inlineStr">
+      <c r="O32" t="inlineStr">
         <is>
           <t>MOUDU ROSEWA ROSEMARY
 EFFIONG HAPPINESS</t>
         </is>
       </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32">
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
         <v>4772</v>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Stillbirth</t>
-        </is>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32" t="inlineStr">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Stillbirth</t>
+        </is>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="E32" s="2">
+      <c r="E33" s="2">
         <v>45354</v>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>Eti-Osa</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>92, LANGBASA ROAD, LANGBASA</t>
         </is>
       </c>
-      <c r="I32">
+      <c r="I33">
         <v>1850</v>
       </c>
-      <c r="J32" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>6, Abayomi street, LANGBASA bus stop by the police station</t>
         </is>
       </c>
-      <c r="L32" t="inlineStr">
+      <c r="L33" t="inlineStr">
         <is>
           <t>LVASA/8/1850/37</t>
         </is>
       </c>
-      <c r="M32" t="inlineStr">
+      <c r="M33" t="inlineStr">
         <is>
           <t>tab21</t>
         </is>
       </c>
-      <c r="N32" t="inlineStr">
+      <c r="N33" t="inlineStr">
         <is>
           <t>2024-03-13</t>
         </is>
       </c>
-      <c r="O32" t="inlineStr">
+      <c r="O33" t="inlineStr">
         <is>
           <t>MOUDU ROSEWA ROSEMARY
 EFFIONG HAPPINESS</t>
         </is>
       </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33">
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
         <v>5344</v>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Stillbirth</t>
-        </is>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33" t="inlineStr">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Stillbirth</t>
+        </is>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E33" s="2">
+      <c r="E34" s="2">
         <v>44985</v>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>Ibeju-Lekki</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>ARAROMI RD, ELEKO</t>
         </is>
       </c>
-      <c r="I33">
+      <c r="I34">
         <v>864</v>
       </c>
-      <c r="K33" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>Eckon Club building One of Nigeria, Araromi, Eleko</t>
         </is>
       </c>
-      <c r="L33" t="inlineStr">
+      <c r="L34" t="inlineStr">
         <is>
           <t>LVASA/9/864/3</t>
         </is>
       </c>
-      <c r="M33" t="inlineStr">
+      <c r="M34" t="inlineStr">
         <is>
           <t>tab2</t>
         </is>
       </c>
-      <c r="N33" t="inlineStr">
+      <c r="N34" t="inlineStr">
         <is>
           <t>2024-03-14</t>
         </is>
       </c>
-      <c r="O33" t="inlineStr">
+      <c r="O34" t="inlineStr">
         <is>
           <t>MAKANJUOLA MOSHOOD
 ODEYALE OLUWASEGUN DANIEL</t>
         </is>
       </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34">
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
         <v>5448</v>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Stillbirth</t>
-        </is>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34" t="inlineStr">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Stillbirth</t>
+        </is>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="E34" s="2">
+      <c r="E35" s="2">
         <v>45243</v>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>Epe</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>OLUWAKEMI MOSQUE, ITOKIN, ITOKIN</t>
         </is>
       </c>
-      <c r="J34" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>14, Ago-Ekiti Street Itoikin</t>
         </is>
       </c>
-      <c r="M34" t="inlineStr">
+      <c r="M35" t="inlineStr">
         <is>
           <t>tab16</t>
         </is>
       </c>
-      <c r="N34" t="inlineStr">
+      <c r="N35" t="inlineStr">
         <is>
           <t>2024-03-14</t>
         </is>
       </c>
-      <c r="O34" t="inlineStr">
+      <c r="O35" t="inlineStr">
         <is>
           <t>OJO MOSHOOD ADEMUYIWA
 OMOBOLAJI LASISI</t>
         </is>
       </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35">
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
         <v>5635</v>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Stillbirth</t>
-        </is>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35" t="inlineStr">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Stillbirth</t>
+        </is>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E35" s="2">
+      <c r="E36" s="2">
         <v>45312</v>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>Oshodi-Isolo</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>MUSHIN ROAD/JOSEPH TONADE, ISHAGA</t>
         </is>
       </c>
-      <c r="I35">
+      <c r="I36">
         <v>1398</v>
       </c>
-      <c r="J35" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>55 Mushin Road off Ishaga isolo Lagos</t>
         </is>
       </c>
-      <c r="L35" t="inlineStr">
+      <c r="L36" t="inlineStr">
         <is>
           <t>LVASA/18/1398/26</t>
         </is>
       </c>
-      <c r="M35" t="inlineStr">
+      <c r="M36" t="inlineStr">
         <is>
           <t>tab9</t>
         </is>
       </c>
-      <c r="N35" t="inlineStr">
+      <c r="N36" t="inlineStr">
         <is>
           <t>2024-03-14</t>
         </is>
       </c>
-      <c r="O35" t="inlineStr">
+      <c r="O36" t="inlineStr">
         <is>
           <t>UGOCHUKWU OBINNA
 YEKINI MUSIBAU</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36">
-        <v>6209</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Stillbirth</t>
-        </is>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E36" s="2">
-        <v>45211</v>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>Ifako-Ijaiye</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>ALHAJA SHITTU, OKO OBA</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>12 Ola Ofe Street</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>tab54</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>2024-03-16</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>OLUSOJI-AFOLABI OLUWATOSIN
-ODUMERU SAMIAT</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -3130,7 +3133,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>6318</v>
+        <v>6209</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -3142,35 +3145,35 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E38" s="2">
-        <v>45192</v>
+        <v>45211</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Ibeju-Lekki</t>
+          <t>Ifako-Ijaiye</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>OKO LOMI, BOGIJE</t>
+          <t>ALHAJA SHITTU, OKO OBA</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Opposite Ahmed Tinubu Road, ologunabo street</t>
+          <t>12 Ola Ofe Street</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>tab2</t>
+          <t>tab54</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -3180,8 +3183,8 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>MAKANJUOLA MOSHOOD
-ODEYALE OLUWASEGUN DANIEL</t>
+          <t>OLUSOJI-AFOLABI OLUWATOSIN
+ODUMERU SAMIAT</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -3264,7 +3267,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>6609</v>
+        <v>6318</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -3276,43 +3279,35 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E40" s="2">
-        <v>45048</v>
+        <v>45192</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>28</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Mushin</t>
+          <t>Ibeju-Lekki</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>ISHAGA RD/MALLAM GANA, IDI - ARABA</t>
-        </is>
-      </c>
-      <c r="I40">
-        <v>956</v>
+          <t>OKO LOMI, BOGIJE</t>
+        </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>6 Mallam Gana street off Ishaga road Idi Araba Mushin Lagos</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>LVASA/16/956/4</t>
+          <t>Opposite Ahmed Tinubu Road, ologunabo street</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>tab12</t>
+          <t>tab2</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -3322,8 +3317,8 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>ADEMOLA AKANDE
-RACHAEL OGHENEWAIRE</t>
+          <t>MAKANJUOLA MOSHOOD
+ODEYALE OLUWASEGUN DANIEL</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -3414,7 +3409,7 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>6683</v>
+        <v>6609</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -3430,31 +3425,39 @@
         </is>
       </c>
       <c r="E42" s="2">
-        <v>45263</v>
+        <v>45048</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Epe</t>
+          <t>Mushin</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>POBUNA RD/ITUNDENDEREN STR., POKA</t>
-        </is>
+          <t>ISHAGA RD/MALLAM GANA, IDI - ARABA</t>
+        </is>
+      </c>
+      <c r="I42">
+        <v>956</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>4, Itu-dederen Street Poka Epe</t>
+          <t>6 Mallam Gana street off Ishaga road Idi Araba Mushin Lagos</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>LVASA/16/956/4</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>tab16</t>
+          <t>tab12</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -3464,8 +3467,8 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>OJO MOSHOOD ADEMUYIWA
-OMOBOLAJI LASISI</t>
+          <t>ADEMOLA AKANDE
+RACHAEL OGHENEWAIRE</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -3548,7 +3551,7 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>6696</v>
+        <v>6683</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -3560,15 +3563,15 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E44" s="2">
-        <v>45047</v>
+        <v>45263</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>24</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -3583,7 +3586,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>4, Pobona College Road</t>
+          <t>4, Itu-dederen Street Poka Epe</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
@@ -3593,7 +3596,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>2024-03-17</t>
+          <t>2024-03-16</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -3682,7 +3685,7 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>6710</v>
+        <v>6696</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -3694,15 +3697,15 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E46" s="2">
-        <v>44941</v>
+        <v>45047</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -3712,12 +3715,12 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>MAKALEWO ST/POBUNA ROAD, POKA</t>
+          <t>POBUNA RD/ITUNDENDEREN STR., POKA</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>10, Lawo Road, Poka Epe</t>
+          <t>4, Pobona College Road</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
@@ -3816,7 +3819,7 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>6714</v>
+        <v>6710</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -3832,11 +3835,11 @@
         </is>
       </c>
       <c r="E48" s="2">
-        <v>45278</v>
+        <v>44941</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>16</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -3851,7 +3854,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>10, College Road Poka Epe</t>
+          <t>10, Lawo Road, Poka Epe</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
@@ -3950,7 +3953,7 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>6843</v>
+        <v>6714</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -3962,41 +3965,46 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E50" s="2">
-        <v>45031</v>
+        <v>45278</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Ojo</t>
+          <t>Epe</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>RAIMI/YEKINI STREET, ILEMBA AWORI</t>
+          <t>MAKALEWO ST/POBUNA ROAD, POKA</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>HOUSE NO 5, DAS STREET, ARAROMI BUS STOP, SHIBIRI ROAD, AJANGBADI, OJO, LAGOS.</t>
+          <t>10, College Road Poka Epe</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>tab20</t>
+          <t>tab16</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>2024-03-18</t>
+          <t>2024-03-17</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>NA
-NA</t>
+          <t>OJO MOSHOOD ADEMUYIWA
+OMOBOLAJI LASISI</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
@@ -4074,685 +4082,814 @@
     </row>
     <row r="52">
       <c r="A52">
+        <v>6843</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Stillbirth</t>
+        </is>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E52" s="2">
+        <v>45031</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Ojo</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>RAIMI/YEKINI STREET, ILEMBA AWORI</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>HOUSE NO 5, DAS STREET, ARAROMI BUS STOP, SHIBIRI ROAD, AJANGBADI, OJO, LAGOS.</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>tab20</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>NA
+NA</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>6870</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Stillbirth</t>
+        </is>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E53" s="2">
+        <v>45245</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Surulere</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>ODOGBOLU / ADETOLA AGUDA STREET, AGUDA</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>70 odogbolu street aguda surulere</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>tab8</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>JOHNSON-BEZI ANTHONY
+Osemene Joshua Chukwunonso</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
         <v>7145</v>
       </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Stillbirth</t>
-        </is>
-      </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52" t="inlineStr">
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Stillbirth</t>
+        </is>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="E52" s="2">
+      <c r="E54" s="2">
         <v>45153</v>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>Mushin</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>IJESHA  ROAD 2, ITIRE</t>
         </is>
       </c>
-      <c r="J52" t="inlineStr">
+      <c r="J54" t="inlineStr">
         <is>
           <t>86 Ijesha Room Mushin Lagos</t>
         </is>
       </c>
-      <c r="M52" t="inlineStr">
+      <c r="M54" t="inlineStr">
         <is>
           <t>tab12</t>
         </is>
       </c>
-      <c r="N52" t="inlineStr">
+      <c r="N54" t="inlineStr">
         <is>
           <t>2024-03-18</t>
         </is>
       </c>
-      <c r="O52" t="inlineStr">
+      <c r="O54" t="inlineStr">
         <is>
           <t>ADEMOLA AKANDE
 RACHAEL OGHENEWAIRE</t>
         </is>
       </c>
-      <c r="P52" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="Q52" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53">
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
         <v>7145</v>
       </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Stillbirth</t>
-        </is>
-      </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-      <c r="D53" t="inlineStr">
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Stillbirth</t>
+        </is>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="E53" s="2">
+      <c r="E55" s="2">
         <v>45153</v>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>Mushin</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>IJESHA  ROAD 2, ITIRE</t>
         </is>
       </c>
-      <c r="J53" t="inlineStr">
+      <c r="J55" t="inlineStr">
         <is>
           <t>86 Ijesha Room Mushin Lagos</t>
         </is>
       </c>
-      <c r="M53" t="inlineStr">
+      <c r="M55" t="inlineStr">
         <is>
           <t>tab12</t>
         </is>
       </c>
-      <c r="N53" t="inlineStr">
+      <c r="N55" t="inlineStr">
         <is>
           <t>2024-03-18</t>
         </is>
       </c>
-      <c r="O53" t="inlineStr">
+      <c r="O55" t="inlineStr">
         <is>
           <t>ADEMOLA AKANDE
 RACHAEL OGHENEWAIRE</t>
         </is>
       </c>
-      <c r="P53" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="Q53" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54">
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
         <v>7150</v>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Stillbirth</t>
-        </is>
-      </c>
-      <c r="C54">
-        <v>1</v>
-      </c>
-      <c r="D54" t="inlineStr">
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Stillbirth</t>
+        </is>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E54" s="2">
+      <c r="E56" s="2">
         <v>45000</v>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>Mushin</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>IJESHA  ROAD 2, ITIRE</t>
         </is>
       </c>
-      <c r="J54" t="inlineStr">
+      <c r="J56" t="inlineStr">
         <is>
           <t>96 ijesha Road Mushin the</t>
         </is>
       </c>
-      <c r="M54" t="inlineStr">
+      <c r="M56" t="inlineStr">
         <is>
           <t>tab12</t>
         </is>
       </c>
-      <c r="N54" t="inlineStr">
+      <c r="N56" t="inlineStr">
         <is>
           <t>2024-03-18</t>
         </is>
       </c>
-      <c r="O54" t="inlineStr">
+      <c r="O56" t="inlineStr">
         <is>
           <t>ADEMOLA AKANDE
 RACHAEL OGHENEWAIRE</t>
         </is>
       </c>
-      <c r="P54" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="Q54" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55">
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
         <v>7150</v>
       </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Stillbirth</t>
-        </is>
-      </c>
-      <c r="C55">
-        <v>1</v>
-      </c>
-      <c r="D55" t="inlineStr">
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Stillbirth</t>
+        </is>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E55" s="2">
+      <c r="E57" s="2">
         <v>45000</v>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>Mushin</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>IJESHA  ROAD 2, ITIRE</t>
         </is>
       </c>
-      <c r="J55" t="inlineStr">
+      <c r="J57" t="inlineStr">
         <is>
           <t>96 ijesha Road Mushin the</t>
         </is>
       </c>
-      <c r="M55" t="inlineStr">
+      <c r="M57" t="inlineStr">
         <is>
           <t>tab12</t>
         </is>
       </c>
-      <c r="N55" t="inlineStr">
+      <c r="N57" t="inlineStr">
         <is>
           <t>2024-03-18</t>
         </is>
       </c>
-      <c r="O55" t="inlineStr">
+      <c r="O57" t="inlineStr">
         <is>
           <t>ADEMOLA AKANDE
 RACHAEL OGHENEWAIRE</t>
         </is>
       </c>
-      <c r="P55" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="Q55" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56">
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
         <v>8713</v>
       </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Stillbirth</t>
-        </is>
-      </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-      <c r="D56" t="inlineStr">
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Stillbirth</t>
+        </is>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>09056610459</t>
         </is>
       </c>
-      <c r="E56" s="2">
+      <c r="E58" s="2">
         <v>45357</v>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>Ikorodu</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>LABAKA STREET, IBESHE</t>
         </is>
       </c>
-      <c r="J56" t="inlineStr">
+      <c r="J58" t="inlineStr">
         <is>
           <t>Labaka street  Ibeshe road owode Ibeshe. Fadeyi street off Japheth street 1</t>
         </is>
       </c>
-      <c r="M56" t="inlineStr">
+      <c r="M58" t="inlineStr">
         <is>
           <t>tab18</t>
         </is>
       </c>
-      <c r="N56" t="inlineStr">
+      <c r="N58" t="inlineStr">
         <is>
           <t>2024-03-22</t>
         </is>
       </c>
-      <c r="O56" t="inlineStr">
+      <c r="O58" t="inlineStr">
         <is>
           <t>AYOKU DAMILOLA
 SANNI EZEKIEL</t>
         </is>
       </c>
-      <c r="P56" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="Q56" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57">
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
         <v>8713</v>
       </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Stillbirth</t>
-        </is>
-      </c>
-      <c r="C57">
-        <v>1</v>
-      </c>
-      <c r="D57" t="inlineStr">
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Stillbirth</t>
+        </is>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>09056610459</t>
         </is>
       </c>
-      <c r="E57" s="2">
+      <c r="E59" s="2">
         <v>45357</v>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>Ikorodu</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>LABAKA STREET, IBESHE</t>
         </is>
       </c>
-      <c r="J57" t="inlineStr">
+      <c r="J59" t="inlineStr">
         <is>
           <t>Labaka street  Ibeshe road owode Ibeshe. Fadeyi street off Japheth street 1</t>
         </is>
       </c>
-      <c r="M57" t="inlineStr">
+      <c r="M59" t="inlineStr">
         <is>
           <t>tab18</t>
         </is>
       </c>
-      <c r="N57" t="inlineStr">
+      <c r="N59" t="inlineStr">
         <is>
           <t>2024-03-22</t>
         </is>
       </c>
-      <c r="O57" t="inlineStr">
+      <c r="O59" t="inlineStr">
         <is>
           <t>AYOKU DAMILOLA
 SANNI EZEKIEL</t>
         </is>
       </c>
-      <c r="P57" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="Q57" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58">
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
         <v>8844</v>
       </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Stillbirth</t>
-        </is>
-      </c>
-      <c r="C58">
-        <v>1</v>
-      </c>
-      <c r="D58" t="inlineStr">
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Stillbirth</t>
+        </is>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E58" s="2">
+      <c r="E60" s="2">
         <v>44936</v>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>Amuwo odofin</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>OLALEYE STREET, AMUWO ODOFIN</t>
         </is>
       </c>
-      <c r="J58" t="inlineStr">
+      <c r="J60" t="inlineStr">
         <is>
           <t>Plot 1334A Olaleye Oluwa Street Unity State Amuwo Odofin Lagos</t>
         </is>
       </c>
-      <c r="M58" t="inlineStr">
+      <c r="M60" t="inlineStr">
         <is>
           <t>tab9</t>
         </is>
       </c>
-      <c r="N58" t="inlineStr">
+      <c r="N60" t="inlineStr">
         <is>
           <t>2024-03-21</t>
         </is>
       </c>
-      <c r="O58" t="inlineStr">
+      <c r="O60" t="inlineStr">
         <is>
           <t>NA
 NA</t>
         </is>
       </c>
-      <c r="P58" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="Q58" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59">
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
         <v>9182</v>
       </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Stillbirth</t>
-        </is>
-      </c>
-      <c r="C59">
-        <v>1</v>
-      </c>
-      <c r="D59" t="inlineStr">
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Stillbirth</t>
+        </is>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="E59" s="2">
+      <c r="E61" s="2">
         <v>45061</v>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>Agege</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>ALAGBEGBA STREET, ISALE OJA</t>
         </is>
       </c>
-      <c r="J59" t="inlineStr">
+      <c r="J61" t="inlineStr">
         <is>
           <t>72 Capitol Road Isale oja,Agege Lagos</t>
         </is>
       </c>
-      <c r="M59" t="inlineStr">
+      <c r="M61" t="inlineStr">
         <is>
           <t>tab12</t>
         </is>
       </c>
-      <c r="N59" t="inlineStr">
+      <c r="N61" t="inlineStr">
         <is>
           <t>2024-03-22</t>
         </is>
       </c>
-      <c r="O59" t="inlineStr">
+      <c r="O61" t="inlineStr">
         <is>
           <t>EDOJAH RUTH HAPPINESS
 OLABIYI OLAJIDE</t>
         </is>
       </c>
-      <c r="P59" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="Q59" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60">
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
         <v>10131</v>
       </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Stillbirth</t>
-        </is>
-      </c>
-      <c r="C60">
-        <v>1</v>
-      </c>
-      <c r="D60" t="inlineStr">
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Stillbirth</t>
+        </is>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="E60" s="2">
+      <c r="E62" s="2">
         <v>45275</v>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>Kosofe</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>BAMGBOYE STREET, AGILITI</t>
         </is>
       </c>
-      <c r="I60">
+      <c r="I62">
         <v>390</v>
       </c>
-      <c r="J60" t="inlineStr">
+      <c r="J62" t="inlineStr">
         <is>
           <t>1, BAMGBOYE STREET AGILITI</t>
         </is>
       </c>
-      <c r="L60" t="inlineStr">
+      <c r="L62" t="inlineStr">
         <is>
           <t>LVASA/13/390/7</t>
         </is>
       </c>
-      <c r="M60" t="inlineStr">
+      <c r="M62" t="inlineStr">
         <is>
           <t>tab14</t>
         </is>
       </c>
-      <c r="N60" t="inlineStr">
+      <c r="N62" t="inlineStr">
         <is>
           <t>2024-03-26</t>
         </is>
       </c>
-      <c r="O60" t="inlineStr">
+      <c r="O62" t="inlineStr">
         <is>
           <t>ARANJU OLUKUNLE
 FUNMI AGBAJE</t>
         </is>
       </c>
-      <c r="P60" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="Q60" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61">
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
         <v>10131</v>
       </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Stillbirth</t>
-        </is>
-      </c>
-      <c r="C61">
-        <v>1</v>
-      </c>
-      <c r="D61" t="inlineStr">
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Stillbirth</t>
+        </is>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="E61" s="2">
+      <c r="E63" s="2">
         <v>45275</v>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>Kosofe</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>BAMGBOYE STREET, AGILITI</t>
         </is>
       </c>
-      <c r="I61">
+      <c r="I63">
         <v>390</v>
       </c>
-      <c r="J61" t="inlineStr">
+      <c r="J63" t="inlineStr">
         <is>
           <t>1, BAMGBOYE STREET AGILITI</t>
         </is>
       </c>
-      <c r="L61" t="inlineStr">
+      <c r="L63" t="inlineStr">
         <is>
           <t>LVASA/13/390/7</t>
         </is>
       </c>
-      <c r="M61" t="inlineStr">
+      <c r="M63" t="inlineStr">
         <is>
           <t>tab14</t>
         </is>
       </c>
-      <c r="N61" t="inlineStr">
+      <c r="N63" t="inlineStr">
         <is>
           <t>2024-03-26</t>
         </is>
       </c>
-      <c r="O61" t="inlineStr">
+      <c r="O63" t="inlineStr">
         <is>
           <t>ARANJU OLUKUNLE
 FUNMI AGBAJE</t>
         </is>
       </c>
-      <c r="P61" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="Q61" t="inlineStr">
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q63" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
